--- a/Resultados/P_2.xlsx
+++ b/Resultados/P_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="11" uniqueCount="1">
   <si>
     <t>P</t>
   </si>
@@ -67,7 +67,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,243 +77,219 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.29717142741429842</v>
+        <v>1.9233547142618215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.37072486238003916</v>
+        <v>0.39451822044170853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.17774746703914487</v>
+        <v>0.41128326582112773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.37072580590692183</v>
+        <v>0.35574934479920184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.11056971221889472</v>
+        <v>0.46129386733097927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1105323872412963</v>
+        <v>0.60305119398153362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.11388002341196328</v>
+        <v>0.15751404374216593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.11384933105552406</v>
+        <v>0.15266565220427272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.070804308952705536</v>
+        <v>0.44285863638642531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.094278232176142646</v>
+        <v>0.18941628845427372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.36889388929147715</v>
+        <v>0.14604443222789884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.094304173509174721</v>
+        <v>0.16619267398191701</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.063890639381856795</v>
+        <v>0.25044229002118001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.063870462350464119</v>
+        <v>0.2309688057861391</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0640273183308223</v>
+        <v>0.13604480091317123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.06401809383309226</v>
+        <v>0.13377908078743017</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.047608500316348515</v>
+        <v>0.14827493305886433</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1.1115199450497082</v>
+        <v>0.19662211806006724</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.047612443024413927</v>
+        <v>0.14006485223250734</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.28989206487533398</v>
+        <v>0.32947730290519095</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.045374447102861204</v>
+        <v>0.15879488215078347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.045383644328393383</v>
+        <v>0.15926137817857675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.030602400139407904</v>
+        <v>0.13176397406522955</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.030629814400967084</v>
+        <v>0.12892748943143179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.028460903918549996</v>
+        <v>0.14354286699550334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.017422930874887794</v>
+        <v>0.13440640890163252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.020995667132939957</v>
+        <v>0.1340345252182111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.01743008491046024</v>
+        <v>0.13401798318956942</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.031415932732694225</v>
+        <v>0.13563085733542135</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.031416964567802033</v>
+        <v>0.13661333910173781</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.028276687130564651</v>
+        <v>0.13316243138727665</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.028296634347119161</v>
+        <v>0.13090068118070711</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.036955384644617673</v>
+        <v>0.14518383626830084</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.018913588115415717</v>
+        <v>0.13377322063629163</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.042246318616555291</v>
+        <v>0.14047199518086229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.01891303973033066</v>
+        <v>0.1337700584835938</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>0.030304161422642376</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>0.030286258746617084</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>0.030148404836969626</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>0.0301400662948654</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>0.023894360017891886</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>0.023914623439231317</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>0.023453695069830673</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>0.023406755173742095</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>0.035798400363017319</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>0.035865537937730722</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>0.035326657343343039</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>0.035241950977224781</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>
